--- a/documents/Traceability matrix.xlsx
+++ b/documents/Traceability matrix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serega\Desktop\МДК\2 курс\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serega\Desktop\МДК\2 курс\На Git Hub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FC51F4-5072-44F5-9636-90072FB55CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA65E13-159F-41D7-B19D-794C47A3E843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3974D6A8-F67B-4457-B258-57D26ED5531A}"/>
   </bookViews>
@@ -605,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2487136-145D-4C66-9E8D-3DD8A79503DD}">
   <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:Z13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/documents/Traceability matrix.xlsx
+++ b/documents/Traceability matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serega\Desktop\МДК\2 курс\На Git Hub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\МДК\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA65E13-159F-41D7-B19D-794C47A3E843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D29D139-8A50-4A29-A76A-38F61CA7D84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3974D6A8-F67B-4457-B258-57D26ED5531A}"/>
+    <workbookView xWindow="1620" yWindow="7725" windowWidth="24165" windowHeight="11385" xr2:uid="{3974D6A8-F67B-4457-B258-57D26ED5531A}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -605,21 +605,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2487136-145D-4C66-9E8D-3DD8A79503DD}">
   <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.25" customWidth="1"/>
+    <col min="2" max="15" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="34.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" ht="26.25">
       <c r="A1" s="9"/>
       <c r="B1" s="10" t="s">
         <v>14</v>
@@ -698,13 +698,13 @@
       </c>
       <c r="AA1" s="6"/>
     </row>
-    <row r="2" spans="1:27" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" ht="26.25">
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
+      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -729,7 +729,7 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="6"/>
     </row>
-    <row r="3" spans="1:27" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27" ht="26.25">
       <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
@@ -760,7 +760,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="6"/>
     </row>
-    <row r="4" spans="1:27" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" ht="26.25">
       <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
@@ -791,7 +791,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="6"/>
     </row>
-    <row r="5" spans="1:27" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" ht="26.25">
       <c r="A5" s="10" t="s">
         <v>10</v>
       </c>
@@ -821,7 +821,7 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="6"/>
     </row>
-    <row r="6" spans="1:27" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:27" ht="26.25">
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
@@ -852,7 +852,7 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="6"/>
     </row>
-    <row r="7" spans="1:27" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:27" ht="26.25">
       <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
@@ -883,7 +883,7 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="6"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27">
       <c r="A8" s="4"/>
       <c r="B8" s="5">
         <v>1</v>
@@ -961,15 +961,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5">
         <v>1</v>
       </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
+      <c r="D9" s="5"/>
       <c r="E9" s="5">
         <v>1</v>
       </c>
@@ -1009,7 +1007,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" spans="1:27" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:27" ht="26.25">
       <c r="A10" s="7" t="s">
         <v>31</v>
       </c>
@@ -1040,7 +1038,7 @@
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
     </row>
-    <row r="11" spans="1:27" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:27" ht="26.25">
       <c r="A11" s="7" t="s">
         <v>32</v>
       </c>
@@ -1071,7 +1069,7 @@
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
     </row>
-    <row r="12" spans="1:27" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27" ht="26.25">
       <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
@@ -1101,10 +1099,10 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" spans="1:27" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:27" ht="26.25">
       <c r="A13" s="8">
         <f>100%*(SUM(B9:Z9)/SUM(B8:Z8))</f>
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1135,5 +1133,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documents/Traceability matrix.xlsx
+++ b/documents/Traceability matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\МДК\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D29D139-8A50-4A29-A76A-38F61CA7D84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96E6D3C-ADAD-45AD-A52B-D46C3AC86B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="7725" windowWidth="24165" windowHeight="11385" xr2:uid="{3974D6A8-F67B-4457-B258-57D26ED5531A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3974D6A8-F67B-4457-B258-57D26ED5531A}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -605,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2487136-145D-4C66-9E8D-3DD8A79503DD}">
   <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AD8" sqref="AD8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
